--- a/ifrs17_template/Files/Dimensions.xlsx
+++ b/ifrs17_template/Files/Dimensions.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e058ec69bd94c7d/pyproj/IFRS17CalculationEnginePython/ifrs17-template/Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fumito\OneDrive\pyproj\IFRS17CalculationEnginePython\ifrs17_template\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9BFA85D9-743C-47B7-AEBD-3561C45D2C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6864288C-913E-4C7F-95CC-A19A38B63762}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B358B30E-E1BD-4739-B05C-FBF4E1A5BE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11910" yWindow="6310" windowWidth="26380" windowHeight="13010" tabRatio="818" activeTab="1" xr2:uid="{7BE3488F-B839-4001-80CF-3C444E28240B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="768" activeTab="9" xr2:uid="{306A9329-EBFE-4F70-A441-0C01444228B5}"/>
   </bookViews>
   <sheets>
     <sheet name="ReportingNode" sheetId="21" r:id="rId1"/>
-    <sheet name="AmountType" sheetId="4" r:id="rId2"/>
-    <sheet name="DeferrableAmountType" sheetId="1" r:id="rId3"/>
-    <sheet name="AocType" sheetId="2" r:id="rId4"/>
-    <sheet name="AocConfiguration" sheetId="3" r:id="rId5"/>
+    <sheet name="AmountType" sheetId="1" r:id="rId2"/>
+    <sheet name="DeferrableAmountType" sheetId="2" r:id="rId3"/>
+    <sheet name="AocType" sheetId="3" r:id="rId4"/>
+    <sheet name="AocConfiguration" sheetId="4" r:id="rId5"/>
     <sheet name="CreditRiskRating" sheetId="5" r:id="rId6"/>
     <sheet name="Currency" sheetId="6" r:id="rId7"/>
     <sheet name="EconomicBasis" sheetId="7" r:id="rId8"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="381">
   <si>
     <t>SystemName</t>
   </si>
@@ -82,6 +82,9 @@
     <t>ExternalId2</t>
   </si>
   <si>
+    <t>ExternalId3</t>
+  </si>
+  <si>
     <t>PR</t>
   </si>
   <si>
@@ -100,6 +103,9 @@
     <t>RiPayablePR</t>
   </si>
   <si>
+    <t>RiReceivablePR</t>
+  </si>
+  <si>
     <t>CL</t>
   </si>
   <si>
@@ -124,6 +130,9 @@
     <t>RiPayableNIC</t>
   </si>
   <si>
+    <t>RiReceivableNIC</t>
+  </si>
+  <si>
     <t>ICO</t>
   </si>
   <si>
@@ -502,9 +511,6 @@
     <t>StructureType</t>
   </si>
   <si>
-    <t>ExternalId3</t>
-  </si>
-  <si>
     <t>ExternalId4</t>
   </si>
   <si>
@@ -553,18 +559,12 @@
     <t>Advance Actuals</t>
   </si>
   <si>
-    <t>RiReceivablePR</t>
-  </si>
-  <si>
     <t>OA</t>
   </si>
   <si>
     <t>Overdue Actuals</t>
   </si>
   <si>
-    <t>RiReceivableNIC</t>
-  </si>
-  <si>
     <t>DA</t>
   </si>
   <si>
@@ -1121,6 +1121,54 @@
   </si>
   <si>
     <t>Years Over +20</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
   </si>
   <si>
     <t>Parent</t>
@@ -1131,70 +1179,32 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Opening, Actual, Cashflow</t>
+  </si>
+  <si>
+    <t>Opening, Cashflow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Actual, Cashflow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NotApplicable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Actual</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Cashflow</t>
   </si>
   <si>
     <t>Opening, Actual</t>
-  </si>
-  <si>
-    <t>Actual</t>
-  </si>
-  <si>
-    <t>Opening, Actual, Cashflow</t>
-  </si>
-  <si>
-    <t>Actual, Cashflow</t>
-  </si>
-  <si>
-    <t>Opening, Cashflow</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>CH</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
   </si>
 </sst>
 </file>
@@ -1557,11 +1567,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B772EE6-71B6-401A-9910-869A3C5D2EA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D4DF29-F1C7-47F0-A8FD-A3830D6DC592}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1577,116 +1587,116 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B3" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C3" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C4" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B5" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C5" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B6" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C6" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B8" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C8" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B9" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C9" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1696,11 +1706,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B8DB17-BAA7-4E5F-B88F-3A46E6CC5012}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66956434-E951-451B-9993-178F88BD0387}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1713,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1739,17 +1749,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB7E064-AB88-4C41-A633-6F33101F6BD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45E12CB-260C-471C-AD5C-6C3C01344FF0}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="2" max="2" width="22.9140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
@@ -1762,7 +1769,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1979,11 +1986,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05790D6-7663-4149-BF22-5C4BB9CF8B81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0642EDC5-84F7-46CE-92CB-653247D2C76F}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2001,7 +2008,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
         <v>210</v>
@@ -2012,7 +2019,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>211</v>
@@ -2023,7 +2030,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
         <v>212</v>
@@ -2039,11 +2046,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939E97FA-3C7C-469C-8E81-4750DC04838C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96F40F3-4E1D-48DA-9E02-350D387FB038}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2071,11 +2078,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0056D2-2D28-4E32-8CFD-D347E2EF75EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53DF3D6-6012-483D-ACAB-C31B5B506832}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2103,11 +2110,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7601CB73-A511-44A6-9784-747E506E6A4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F1EA6E-8941-4357-9EDF-40D106702ABE}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2144,11 +2151,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A96CEDA-25A2-4318-B256-89EB87AC8044}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0010C3-CE07-4388-8D9F-A882203E43F0}">
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2183,7 +2190,7 @@
         <v>220</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
         <v>218</v>
@@ -2239,7 +2246,7 @@
         <v>227</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>225</v>
@@ -2351,7 +2358,7 @@
         <v>242</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>238</v>
@@ -2605,11 +2612,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D86354-FB48-4662-91A4-598C8800ADA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209644A0-BA72-45DC-B4C3-134F7D52F8EF}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2653,11 +2660,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043A687A-E208-4D23-B3BB-5583EBE63BC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9123BD85-6C30-47D6-9C9A-C4DD558557EC}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2670,10 +2677,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="D1" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2694,11 +2701,11 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FE8BBB-8FB1-4A7C-A34F-6EF014C771BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4455B54-6C2B-4382-8FEF-0CD3A5DF6C94}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2846,16 +2853,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B811820-1ADA-48E6-83DB-A453D04B1A3E}">
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2252CD57-FAFB-4858-8AB0-CEE7696EDDE4}">
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2880,269 +2887,278 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>20</v>
       </c>
       <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
       </c>
       <c r="D4">
         <v>30</v>
       </c>
       <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
       <c r="D5">
         <v>40</v>
       </c>
       <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
       </c>
       <c r="D6">
         <v>50</v>
       </c>
       <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
       </c>
       <c r="D7">
         <v>200</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
         <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
       </c>
       <c r="D8">
         <v>210</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>220</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10">
         <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
         <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
       </c>
       <c r="D11">
         <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D12">
         <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D13">
         <v>110</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D14">
         <v>120</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D15">
         <v>130</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
         <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
       </c>
       <c r="D16">
         <v>140</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3152,11 +3168,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6097EFFB-D542-4E6C-BD88-37C8451CDE95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F1F404-11DC-48B1-8D0F-F723C1D274DC}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3184,11 +3200,11 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2907E272-98CC-40B0-8E09-47B79F645DD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822756D7-F0F7-42FF-8037-FCF10131D7CC}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="K23" sqref="K22:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3494,11 +3510,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65D666C-B8B1-4C54-B999-87A6A0ECF48E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5812F1E4-DE6D-4D9B-9695-FAE1D64D3637}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3522,33 +3538,33 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
         <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
       </c>
       <c r="D3">
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -3558,11 +3574,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17982597-0DD4-4288-B4AF-DC2B4C3761A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4750F88B-153B-4CC9-94C0-4D86A6CC0B01}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3583,10 +3599,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -3594,10 +3610,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -3605,10 +3621,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D4">
         <v>30</v>
@@ -3616,13 +3632,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
         <v>58</v>
-      </c>
-      <c r="C5" t="s">
-        <v>55</v>
       </c>
       <c r="D5">
         <v>40</v>
@@ -3630,10 +3646,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D6">
         <v>50</v>
@@ -3641,10 +3657,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D7">
         <v>60</v>
@@ -3652,10 +3668,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D8">
         <v>70</v>
@@ -3663,10 +3679,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D9">
         <v>80</v>
@@ -3674,13 +3690,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
         <v>68</v>
-      </c>
-      <c r="C10" t="s">
-        <v>65</v>
       </c>
       <c r="D10">
         <v>90</v>
@@ -3688,13 +3704,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D11">
         <v>100</v>
@@ -3702,10 +3718,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D12">
         <v>110</v>
@@ -3713,10 +3729,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D13">
         <v>120</v>
@@ -3724,10 +3740,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D14">
         <v>130</v>
@@ -3735,10 +3751,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D15">
         <v>140</v>
@@ -3746,10 +3762,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D16">
         <v>150</v>
@@ -3757,10 +3773,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D17">
         <v>160</v>
@@ -3768,10 +3784,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D18">
         <v>170</v>
@@ -3784,84 +3800,83 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DD733D-F1C5-42D5-A236-E812C0263649}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D39FDFC-2918-40BE-BB67-51AB0FBD3EE1}">
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="24.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J1" t="s">
         <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2">
         <v>10</v>
@@ -3875,31 +3890,31 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3">
         <v>20</v>
@@ -3913,31 +3928,31 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J4">
         <v>30</v>
@@ -3951,31 +3966,31 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J5">
         <v>40</v>
@@ -3989,31 +4004,31 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J6">
         <v>50</v>
@@ -4027,31 +4042,31 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J7">
         <v>60</v>
@@ -4065,31 +4080,31 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J8">
         <v>70</v>
@@ -4103,31 +4118,31 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J9">
         <v>80</v>
@@ -4141,31 +4156,31 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J10">
         <v>90</v>
@@ -4179,31 +4194,31 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J11">
         <v>100</v>
@@ -4217,31 +4232,31 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
+        <v>379</v>
+      </c>
+      <c r="E12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" t="s">
         <v>102</v>
       </c>
-      <c r="C12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" t="s">
-        <v>357</v>
-      </c>
-      <c r="E12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" t="s">
-        <v>99</v>
-      </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J12">
         <v>110</v>
@@ -4255,31 +4270,31 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J13">
         <v>120</v>
@@ -4293,31 +4308,31 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J14">
         <v>130</v>
@@ -4331,31 +4346,31 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J15">
         <v>140</v>
@@ -4369,31 +4384,31 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J16">
         <v>160</v>
@@ -4407,31 +4422,31 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F17" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G17" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H17" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I17" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J17">
         <v>170</v>
@@ -4445,31 +4460,31 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J18">
         <v>180</v>
@@ -4483,31 +4498,31 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J19">
         <v>190</v>
@@ -4521,31 +4536,31 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J20">
         <v>200</v>
@@ -4559,31 +4574,31 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>376</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J21">
         <v>210</v>
@@ -4597,31 +4612,31 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J22">
         <v>220</v>
@@ -4640,11 +4655,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6A138A-249A-436B-A12D-ABD7E7B9ACAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D918729-3520-4078-B538-DEA4FAF974CA}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4659,178 +4674,178 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -4840,11 +4855,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D93DF6C-70D7-4F82-BB0E-F76B58001A0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6080B6-7A9C-4986-BF03-B19D8147BB17}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4859,74 +4874,74 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4936,11 +4951,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52DC7FF3-F6A2-428C-A13D-29BB3F51F9E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8460AE38-9867-48B0-8C43-DA97DB015C8B}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4955,26 +4970,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4984,17 +4999,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DD607C-FB5E-4922-9CF4-C3233B1A56DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347637BB-5D10-4B1C-9ED2-DE56B6951E66}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -5008,10 +5022,10 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -5026,220 +5040,220 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>148</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C4">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C6">
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E6" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C7">
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E7" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C8">
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E8" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C9">
         <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E9" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J9" t="s">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C10">
         <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
         <v>24</v>
-      </c>
-      <c r="J10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -5253,18 +5267,18 @@
         <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
         <v>171</v>
@@ -5273,13 +5287,13 @@
         <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E12" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -5293,13 +5307,13 @@
         <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E13" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -5313,13 +5327,13 @@
         <v>130</v>
       </c>
       <c r="D14" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E14" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -5327,19 +5341,19 @@
         <v>175</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C15">
         <v>140</v>
       </c>
       <c r="D15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E15" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
